--- a/data/trans_dic/P74B-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P74B-Edad-trans_dic.xlsx
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02336816466139913</v>
+        <v>0.02356576801141152</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03239474145231805</v>
+        <v>0.03257494422954856</v>
       </c>
     </row>
     <row r="6">
@@ -709,28 +709,28 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.1669431046858944</v>
+        <v>0.1984356852636051</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3453546320487741</v>
+        <v>0.3998474026951411</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7240126554360614</v>
+        <v>0.5946765831808765</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4455026543345413</v>
+        <v>0.4295475603372568</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1752984991430817</v>
+        <v>0.1773286795867938</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1295421261486108</v>
+        <v>0.1257461500930828</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2110127578879835</v>
+        <v>0.2290238674534074</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2206299862549475</v>
+        <v>0.2362979246727533</v>
       </c>
     </row>
     <row r="7">
@@ -780,29 +780,29 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00550690867755613</v>
+        <v>0.005534508051703559</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01990155656917384</v>
+        <v>0.01984171540435226</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="n">
-        <v>0.1514966870601688</v>
+        <v>0.159581547159201</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06911325201202111</v>
+        <v>0.06640419980986599</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.005124895199546925</v>
+        <v>0.005116537142301707</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06049956844102919</v>
+        <v>0.05624474109450759</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04115715168117907</v>
+        <v>0.04145262415596306</v>
       </c>
     </row>
     <row r="9">
@@ -813,29 +813,29 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0535680825507576</v>
+        <v>0.06221351324419422</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03582374527492751</v>
+        <v>0.04101027376018172</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09461996685489409</v>
+        <v>0.09514462659001158</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>0.3733883632870107</v>
+        <v>0.3646039453767699</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2831082734255986</v>
+        <v>0.2789491816024386</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05814726317164165</v>
+        <v>0.05218659835357408</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.152568979190379</v>
+        <v>0.1484985424508481</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1115893527125297</v>
+        <v>0.1160884343402205</v>
       </c>
     </row>
     <row r="10">
@@ -888,28 +888,28 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02069824468622258</v>
+        <v>0.02111987342882182</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02305273458042166</v>
+        <v>0.02528363041145286</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1808421669123107</v>
+        <v>0.166244913364472</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1189468237967574</v>
+        <v>0.1160080600401367</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1343150906236204</v>
+        <v>0.1267809814329449</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02775185084900502</v>
+        <v>0.02780909662790556</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05814554089903409</v>
+        <v>0.05618896353670428</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06495049311664446</v>
+        <v>0.06602087793874402</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +920,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0213926565030762</v>
+        <v>0.02177594310568632</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06749408975862541</v>
+        <v>0.06903855753814035</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0798734341976669</v>
+        <v>0.08620541254927222</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4807310410893837</v>
+        <v>0.4380392581260467</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2594041394484153</v>
+        <v>0.2498195964777613</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2847318690372708</v>
+        <v>0.2852396205132269</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08052239757267367</v>
+        <v>0.07887953231170476</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1159611690212634</v>
+        <v>0.1144184315888674</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1260600466529904</v>
+        <v>0.1292909243087305</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00922734562793019</v>
+        <v>0.008628430811753672</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01844265873973926</v>
+        <v>0.01665724605112769</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02647859135113253</v>
+        <v>0.02747972399303338</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5951764808773874</v>
+        <v>0.5860805007778175</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3470066583842331</v>
+        <v>0.3359923841455862</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.207124752885813</v>
+        <v>0.2020728317447167</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1200290472593219</v>
+        <v>0.114612248105888</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1316962398435426</v>
+        <v>0.1307916335573542</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09870158554659657</v>
+        <v>0.09761690441769787</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04742468442176</v>
+        <v>0.04458835971766813</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0658752943797986</v>
+        <v>0.06381705643294382</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08964285750840865</v>
+        <v>0.08578400173409743</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8155696865153172</v>
+        <v>0.8142964748839069</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.530013184212304</v>
+        <v>0.5245640953185057</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3638131359712632</v>
+        <v>0.3670713635772837</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1917143090574497</v>
+        <v>0.1970718601249702</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2095867861721118</v>
+        <v>0.2105966333272464</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1666247431176725</v>
+        <v>0.1676412899762922</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05287540348655238</v>
+        <v>0.05471293949925984</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05382480514961455</v>
+        <v>0.05799010653353043</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05237409924385866</v>
+        <v>0.0547055705131332</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8175672296699341</v>
+        <v>0.8211341523645476</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.7985880059814252</v>
+        <v>0.7937533072898568</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7456367148447377</v>
+        <v>0.7493573768352502</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3350489406308516</v>
+        <v>0.3338484625450515</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3888762742762331</v>
+        <v>0.3887354635147797</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3533444235188953</v>
+        <v>0.3518658313844544</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1230628199092191</v>
+        <v>0.1205820851003403</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1283462633314238</v>
+        <v>0.1388042147601633</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1275223260998188</v>
+        <v>0.1338076939163962</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9210515058109412</v>
+        <v>0.92107520889664</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8952013682549717</v>
+        <v>0.8938268060128542</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8660688491212674</v>
+        <v>0.866376516362752</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4252100291381631</v>
+        <v>0.4305251259670435</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4794898217464227</v>
+        <v>0.4754610581789754</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4489745500454189</v>
+        <v>0.4493445889869645</v>
       </c>
     </row>
     <row r="19">
@@ -1212,31 +1212,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1443573196644282</v>
+        <v>0.1437476026624654</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2283253109999405</v>
+        <v>0.2233119511125728</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2185071317431309</v>
+        <v>0.2256177427291978</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.9255631724576211</v>
+        <v>0.9264409174041749</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9254734507799781</v>
+        <v>0.9254013581330672</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9717731772567267</v>
+        <v>0.9717868601050508</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4933944888374647</v>
+        <v>0.4923070124345827</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5403756579165861</v>
+        <v>0.5469415475024217</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5740055805338949</v>
+        <v>0.5739742638840604</v>
       </c>
     </row>
     <row r="21">
@@ -1247,31 +1247,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2410100646693167</v>
+        <v>0.2453011645446696</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3511778653636331</v>
+        <v>0.3481907287529974</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3363924892051498</v>
+        <v>0.3335557022021671</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9812920541665239</v>
+        <v>0.9817265151416598</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9844575537297924</v>
+        <v>0.9846704533738007</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.580836525373622</v>
+        <v>0.5804249807689629</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6367742739149185</v>
+        <v>0.6387290308379546</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6600745384749606</v>
+        <v>0.6622614358844237</v>
       </c>
     </row>
     <row r="22">
@@ -1321,31 +1321,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.133841387148782</v>
+        <v>0.1356721363289964</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2809919803437677</v>
+        <v>0.2793198687522083</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.230639146293966</v>
+        <v>0.227675382166632</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8859469413193972</v>
+        <v>0.8819777530442371</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9625247100358074</v>
+        <v>0.9619715143164648</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9398161932284351</v>
+        <v>0.9383064569818285</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4638367848340369</v>
+        <v>0.4659585901151269</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.5832924069140223</v>
+        <v>0.5898696647933342</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5693295207554834</v>
+        <v>0.5646606632426256</v>
       </c>
     </row>
     <row r="24">
@@ -1356,16 +1356,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2630783043470299</v>
+        <v>0.2691090028136027</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4427476338247991</v>
+        <v>0.4440903411133372</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3658165251743375</v>
+        <v>0.3591644379829492</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9891947463799183</v>
+        <v>0.9889927501707872</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>1</v>
@@ -1374,13 +1374,13 @@
         <v>1</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5912566079494267</v>
+        <v>0.5882878317471245</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.704724120654567</v>
+        <v>0.7036797690072553</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6778382785361269</v>
+        <v>0.6777372636648596</v>
       </c>
     </row>
     <row r="25">
@@ -1430,31 +1430,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0615872000441982</v>
+        <v>0.06277946939149749</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1068585417763562</v>
+        <v>0.1067740754186132</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1066559123807741</v>
+        <v>0.107128787411487</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.7930356921815003</v>
+        <v>0.7961499978401021</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.6438810803029139</v>
+        <v>0.6483557346222826</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6263506872068259</v>
+        <v>0.6306628538798604</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2837570956335702</v>
+        <v>0.2807654680396047</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3251112399089577</v>
+        <v>0.3282016809123373</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3187584847664577</v>
+        <v>0.3166847251738127</v>
       </c>
     </row>
     <row r="27">
@@ -1465,31 +1465,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08936730502494225</v>
+        <v>0.09100981288077629</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1462203184004502</v>
+        <v>0.1451453997702109</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1429080253099005</v>
+        <v>0.1423982180745963</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8582567288181515</v>
+        <v>0.8587744168140747</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7098494970935557</v>
+        <v>0.7124904327172231</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.693948504842934</v>
+        <v>0.6925074930843803</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3247063214644998</v>
+        <v>0.3232721470278784</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3667554435963214</v>
+        <v>0.3682892510355006</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.359091839875714</v>
+        <v>0.3584711424427872</v>
       </c>
     </row>
     <row r="28">
@@ -1740,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>990</v>
+        <v>999</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1745</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="7">
@@ -1755,28 +1755,28 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>4130</v>
+        <v>4909</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7885</v>
+        <v>9129</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>4673</v>
+        <v>3838</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7858</v>
+        <v>7576</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5438</v>
+        <v>5501</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5243</v>
+        <v>5089</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>8942</v>
+        <v>9706</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11882</v>
+        <v>12726</v>
       </c>
     </row>
     <row r="8">
@@ -1861,29 +1861,29 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3139</v>
+        <v>3129</v>
       </c>
       <c r="F10" s="6" t="inlineStr"/>
       <c r="G10" s="6" t="n">
-        <v>12309</v>
+        <v>12966</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3501</v>
+        <v>3364</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>13190</v>
+        <v>12262</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>8576</v>
+        <v>8637</v>
       </c>
     </row>
     <row r="11">
@@ -1894,29 +1894,29 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8993</v>
+        <v>10444</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4899</v>
+        <v>5609</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14923</v>
+        <v>15006</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>30337</v>
+        <v>29623</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>14340</v>
+        <v>14129</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10493</v>
+        <v>9417</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>33262</v>
+        <v>32374</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>23251</v>
+        <v>24189</v>
       </c>
     </row>
     <row r="12">
@@ -2004,28 +2004,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5533</v>
+        <v>5646</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5763</v>
+        <v>6321</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>8421</v>
+        <v>7741</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14515</v>
+        <v>14156</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>14787</v>
+        <v>13957</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8543</v>
+        <v>8560</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>22640</v>
+        <v>21878</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>23388</v>
+        <v>23773</v>
       </c>
     </row>
     <row r="15">
@@ -2036,31 +2036,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5589</v>
+        <v>5689</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18044</v>
+        <v>18456</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>19968</v>
+        <v>21551</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>22386</v>
+        <v>20398</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>31654</v>
+        <v>30485</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>31346</v>
+        <v>31402</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>24786</v>
+        <v>24281</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>45151</v>
+        <v>44550</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>45393</v>
+        <v>46556</v>
       </c>
     </row>
     <row r="16">
@@ -2145,31 +2145,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2680</v>
+        <v>2506</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4958</v>
+        <v>4478</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7082</v>
+        <v>7350</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>41381</v>
+        <v>40748</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>46069</v>
+        <v>44607</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>28545</v>
+        <v>27848</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>43209</v>
+        <v>41259</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>52888</v>
+        <v>52525</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>40001</v>
+        <v>39561</v>
       </c>
     </row>
     <row r="19">
@@ -2180,31 +2180,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>13775</v>
+        <v>12951</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17709</v>
+        <v>17156</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>23976</v>
+        <v>22944</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>56704</v>
+        <v>56616</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>70366</v>
+        <v>69642</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>50139</v>
+        <v>50588</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>69015</v>
+        <v>70944</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>84168</v>
+        <v>84574</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>67529</v>
+        <v>67940</v>
       </c>
     </row>
     <row r="20">
@@ -2289,31 +2289,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14754</v>
+        <v>15267</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>14906</v>
+        <v>16059</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>14064</v>
+        <v>14690</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>137524</v>
+        <v>138124</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>182772</v>
+        <v>181666</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>155796</v>
+        <v>156574</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>149851</v>
+        <v>149314</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>196694</v>
+        <v>196623</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>168711</v>
+        <v>168005</v>
       </c>
     </row>
     <row r="23">
@@ -2324,31 +2324,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>34339</v>
+        <v>33647</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>35543</v>
+        <v>38439</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>34243</v>
+        <v>35931</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>154931</v>
+        <v>154935</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>204884</v>
+        <v>204569</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>180960</v>
+        <v>181024</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>190176</v>
+        <v>192553</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>242526</v>
+        <v>240489</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>214372</v>
+        <v>214549</v>
       </c>
     </row>
     <row r="24">
@@ -2433,31 +2433,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>34902</v>
+        <v>34755</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>53413</v>
+        <v>52240</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>52177</v>
+        <v>53875</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>183740</v>
+        <v>183914</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>179498</v>
+        <v>179484</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>211575</v>
+        <v>211578</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>217238</v>
+        <v>216759</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>231220</v>
+        <v>234029</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>262038</v>
+        <v>262024</v>
       </c>
     </row>
     <row r="27">
@@ -2468,31 +2468,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>58270</v>
+        <v>59308</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>82152</v>
+        <v>81453</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>80326</v>
+        <v>79649</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>194803</v>
+        <v>194889</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>190938</v>
+        <v>190980</v>
       </c>
       <c r="H27" s="6" t="n">
         <v>217721</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>255738</v>
+        <v>255556</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>272467</v>
+        <v>273304</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>301329</v>
+        <v>302328</v>
       </c>
     </row>
     <row r="28">
@@ -2577,31 +2577,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>18884</v>
+        <v>19142</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>46875</v>
+        <v>46596</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>35178</v>
+        <v>34726</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>97647</v>
+        <v>97210</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>136865</v>
+        <v>136787</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>131716</v>
+        <v>131505</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>116566</v>
+        <v>117099</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>180244</v>
+        <v>182277</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>166629</v>
+        <v>165262</v>
       </c>
     </row>
     <row r="31">
@@ -2612,16 +2612,16 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>37118</v>
+        <v>37969</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>73858</v>
+        <v>74082</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>55796</v>
+        <v>54781</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>109027</v>
+        <v>109005</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>142194</v>
@@ -2630,13 +2630,13 @@
         <v>140151</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>148588</v>
+        <v>147841</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>217768</v>
+        <v>217445</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>198386</v>
+        <v>198357</v>
       </c>
     </row>
     <row r="32">
@@ -2721,31 +2721,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>87177</v>
+        <v>88865</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>146968</v>
+        <v>146852</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>144822</v>
+        <v>145464</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>485398</v>
+        <v>487304</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>591528</v>
+        <v>595639</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>561459</v>
+        <v>565324</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>575342</v>
+        <v>569277</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>745818</v>
+        <v>752908</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>718557</v>
+        <v>713882</v>
       </c>
     </row>
     <row r="35">
@@ -2756,31 +2756,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>126500</v>
+        <v>128825</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>201104</v>
+        <v>199626</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>194046</v>
+        <v>193354</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>525318</v>
+        <v>525635</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>652132</v>
+        <v>654559</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>622053</v>
+        <v>620762</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>658371</v>
+        <v>655463</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>841352</v>
+        <v>844870</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>809478</v>
+        <v>808079</v>
       </c>
     </row>
     <row r="36">
